--- a/WordsColors.xlsx
+++ b/WordsColors.xlsx
@@ -70,26 +70,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Raleway"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,12 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,7 +405,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -432,7 +416,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -443,7 +427,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -454,7 +438,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -465,7 +449,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -476,7 +460,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -487,7 +471,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -498,7 +482,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -509,7 +493,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -520,7 +504,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -531,7 +515,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -542,7 +526,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -553,7 +537,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -564,7 +548,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -575,7 +559,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -586,7 +570,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
